--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="6060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -19,13 +20,13 @@
     <t>UserName</t>
   </si>
   <si>
-    <t>Admin</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
-    <t>Manager</t>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>manager</t>
   </si>
 </sst>
 </file>
@@ -380,12 +381,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>

--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19875" windowHeight="6060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16575" windowHeight="6060"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="loginpage" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1"/>
